--- a/results/I3_N5_M2_T30_C100_DepCentral_s0_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2832.618797434269</v>
+        <v>823.9011839847824</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.099999904632568</v>
+        <v>0.8320000171661377</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.96886497444278</v>
+        <v>22.6475080760827</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.76818158911601</v>
+        <v>8.315091385479068</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.288114048939838</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2821.130000000002</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -951,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.43123270582124</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.16307414718501</v>
+        <v>23.18449368032031</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>15.64875879776816</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>25.89414115881186</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9785804668647</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1062,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1076,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1090,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1101,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1115,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1129,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1143,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1157,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1171,155 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1422,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>176.6900000000005</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -1433,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>173.05</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -1444,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>182.4850000000006</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
@@ -1455,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>180.6550000000007</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1466,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>176.3400000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1477,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>288.1649999999994</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1488,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>301.9250000000015</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1499,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>308.264999999999</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1510,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>307.1649999999997</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -1521,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>315.8249999999996</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1532,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999933</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1543,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1554,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1565,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999883</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1576,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1587,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23">
@@ -1598,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -1609,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -1620,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -1631,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27">
@@ -1642,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>176.7649999999994</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1653,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>179.8600000000006</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1664,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>191.55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1675,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>181.9549999999984</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1686,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>193.1949999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1697,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>176.6900000000005</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1708,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>173.05</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -1719,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>182.4850000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -1730,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>180.6550000000007</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -1741,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>176.3400000000001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
@@ -1752,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>288.1649999999994</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38">
@@ -1763,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>301.9250000000015</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
@@ -1774,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>308.264999999999</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40">
@@ -1785,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>307.1649999999997</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41">
@@ -1796,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>315.8249999999996</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>76.69000000000051</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1854,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>73.05</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -1865,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>82.48500000000058</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1876,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>80.65500000000065</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1887,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>76.34000000000015</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1898,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>188.1649999999994</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1909,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>201.9250000000015</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1920,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>208.264999999999</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1931,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>207.1649999999997</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -1942,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>215.8249999999996</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2110,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2121,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2132,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2143,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2267,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2404,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2415,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2429,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2440,7 +2256,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2451,75 +2267,9 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>
